--- a/data/hotels_by_city/Houston/Houston_shard_627.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_627.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d266326-Reviews-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-HoustonDtwnI-610.h892798.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531688929563&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=c45a7a5c-8588-483f-a001-899f1bcf03ca&amp;mctc=9&amp;exp_dp=79.99&amp;exp_ts=1531688930105&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,918 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r581046148-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>266326</t>
+  </si>
+  <si>
+    <t>581046148</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Great clean room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was clean and nice looking bed was very comfy did not eat breakfast so not sure how it was the only issue I had was the area was kinda sketchy the staff was nice and curteious the ac worked very well with nice TVs and dish network </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r507468874-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507468874</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r500430844-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500430844</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Stuck in Houston over the 4th of July, nice hotel with...</t>
+  </si>
+  <si>
+    <t>Stuck in Houston over the 4th of July, nice hotel with truck parking. Room was clean, no problems, paid extra so I could check in at 4am when I arrived, but that was better than waiting for another 12 hours..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r478981626-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478981626</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r470874965-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470874965</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r465840299-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465840299</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r461550666-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461550666</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booked this hotel on a business trip prior to a pleasure trip to Houston. I was happy to see the property in such fine shape. The rooms look like they have recently been updated. My stay there was very relaxing. I will stay here again. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r435323847-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435323847</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very beautiful and affordable hotel </t>
+  </si>
+  <si>
+    <t>I stayed here to visit my family for 3 nights and when I walk in the office I notice how clean and neat the place was it look like they just remodel and the floors were tile that look like wood which you don't see in many hotels. the staff at the front desk was very polite and very helpful they explain the hours of the breakfast and where my room was also they gave me the password of the wifi with out me even asking. When I went in the room it was very beautiful clean and smelled very good I love how they put the big picture frame by the bed. Also the bed was VERY comfortable had good night sleeps. Only thing is you do see a lot of truck drivers of course because they have a very big parking lot but it doesn't bother me. The housekeeping staff was very nice and fast at service I stayed in room 112 and the maid that cleaned my room was very polite I speak Spanish by the way and her name was Alicia that help me at my service. I will definitely stay at this location again. Thank you Super 8 for very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I stayed here to visit my family for 3 nights and when I walk in the office I notice how clean and neat the place was it look like they just remodel and the floors were tile that look like wood which you don't see in many hotels. the staff at the front desk was very polite and very helpful they explain the hours of the breakfast and where my room was also they gave me the password of the wifi with out me even asking. When I went in the room it was very beautiful clean and smelled very good I love how they put the big picture frame by the bed. Also the bed was VERY comfortable had good night sleeps. Only thing is you do see a lot of truck drivers of course because they have a very big parking lot but it doesn't bother me. The housekeeping staff was very nice and fast at service I stayed in room 112 and the maid that cleaned my room was very polite I speak Spanish by the way and her name was Alicia that help me at my service. I will definitely stay at this location again. Thank you Super 8 for very nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r434434310-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434434310</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Truck Friendly Hotel</t>
+  </si>
+  <si>
+    <t>Excellent clean hotel with plenty of truck parking. Love the HD channels, so many to choose from. Larger TV's recommended but they have decent Samsung TV's.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r405324716-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405324716</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Super 8 has great service but the swimming was in an odd...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super 8 has great service but the swimming was in an odd location in front of all the trucks and the office </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r391391940-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391391940</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r390392852-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390392852</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convention </t>
+  </si>
+  <si>
+    <t>Super nice, friendly, clean. We were in the room till 2ish one day and they still cleaned it. Breakfast was good every day! If ever come back to the area would definitely stay! Front desk staff was very helpful and friendly! My husband was here for a convention, I stayed in the room all morning, very quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r351921294-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351921294</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Acceptable Lodging</t>
+  </si>
+  <si>
+    <t>This was a fine place to stay for a night. Whataburger next door so that was close for a quick supper. Place was clean and appeared well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>This was a fine place to stay for a night. Whataburger next door so that was close for a quick supper. Place was clean and appeared well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r351422011-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351422011</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent, clean Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here one night when we arrived into Houston.  The hotel was excellent all round.  The king room was very large and very clean.  Location is out of the way, however we found a supermarket near by and there were plenty of choices in fast food for a quick bite to eat. Thank you for a lovely stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Front Office Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here one night when we arrived into Houston.  The hotel was excellent all round.  The king room was very large and very clean.  Location is out of the way, however we found a supermarket near by and there were plenty of choices in fast food for a quick bite to eat. Thank you for a lovely stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r349288359-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349288359</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>For the price, I was pleasantly surprised with my stay last week, &amp; opted to stay here again this week, since it had the most reasonable rates of any hotels I could find within a 15 minute drive of my destination downtown. Lots of truckers seem to stay here, which is fine by me, as both of my stays were nice &amp; quiet. Even though it was near the highway, I didn't notice much traffic noise.  Room &amp; lobby were clean, &amp; the staff I encountered were all friendly &amp; helpful. I would have rated it 4 stars, but the fridge during my 2nd stay didn't work, &amp; the beds were too firm for my liking. I'd stay here again though. MoreShow less</t>
+  </si>
+  <si>
+    <t>For the price, I was pleasantly surprised with my stay last week, &amp; opted to stay here again this week, since it had the most reasonable rates of any hotels I could find within a 15 minute drive of my destination downtown. Lots of truckers seem to stay here, which is fine by me, as both of my stays were nice &amp; quiet. Even though it was near the highway, I didn't notice much traffic noise.  Room &amp; lobby were clean, &amp; the staff I encountered were all friendly &amp; helpful. I would have rated it 4 stars, but the fridge during my 2nd stay didn't work, &amp; the beds were too firm for my liking. I'd stay here again though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r323753196-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323753196</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Front Office Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r322459799-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322459799</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Complete Surpirse!!</t>
+  </si>
+  <si>
+    <t>OMG!!  I booked this hotel on very, very short notice.  I ended up using my points too.  I normally DO NOT stay outside the downtown area so to speak but this one was the one available and I must say, this is one of the finest, cleanest rooms I have ever stayed in.  Can't say too much about the breakfast area or the lobby but the rooms are awesome.  If you see some of the pics I took, the room is like a suite.  Sooo much room for bags, working out etc..etc.. If you ever need a room or just passing through, this is the place... Great job Wyndham!!  One more thing, I think I had one of the hottest showers I have ever had in this room/hotel... Very nice pressure too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ash P, Guest Relations Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2015</t>
+  </si>
+  <si>
+    <t>OMG!!  I booked this hotel on very, very short notice.  I ended up using my points too.  I normally DO NOT stay outside the downtown area so to speak but this one was the one available and I must say, this is one of the finest, cleanest rooms I have ever stayed in.  Can't say too much about the breakfast area or the lobby but the rooms are awesome.  If you see some of the pics I took, the room is like a suite.  Sooo much room for bags, working out etc..etc.. If you ever need a room or just passing through, this is the place... Great job Wyndham!!  One more thing, I think I had one of the hottest showers I have ever had in this room/hotel... Very nice pressure too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r321161167-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321161167</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Very amazing</t>
+  </si>
+  <si>
+    <t>Love the rooms very nice and clean service was amazing front desk very nice very welcoming definitly staying again MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Love the rooms very nice and clean service was amazing front desk very nice very welcoming definitly staying again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r316136376-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316136376</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Guest Relations Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r313644448-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313644448</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r297749393-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297749393</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Reasonably priced and not too far from downtown</t>
+  </si>
+  <si>
+    <t>This hotel was one of the cleanest I've seen in a while. The rooms were spotless and smelled wonderful. I feel like I got a real deal with rate we paid. The only issues I had was a lack of towels on one occasion.  They took the old ones, but didn't leave new ones.  There are two bus routes to and from downtown that come right to the motel, so I found that quite convenient. It took about 30 minutes to get downtown on the bus, but it was worth it to not have to worry with parking. The area surrounding the motel is not the fancy part of town by any means, but I always felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>This hotel was one of the cleanest I've seen in a while. The rooms were spotless and smelled wonderful. I feel like I got a real deal with rate we paid. The only issues I had was a lack of towels on one occasion.  They took the old ones, but didn't leave new ones.  There are two bus routes to and from downtown that come right to the motel, so I found that quite convenient. It took about 30 minutes to get downtown on the bus, but it was worth it to not have to worry with parking. The area surrounding the motel is not the fancy part of town by any means, but I always felt safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r286217218-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286217218</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very pleasant stay </t>
+  </si>
+  <si>
+    <t>We stayed one night &amp; was surprised to have such a nice front desk. They had our keys ready and we were checked in within minutes. The pool was very nice &amp; clean. The rooms were spacious and up to date. The only complaint was that the entire hotel surrounding smelled like fresh asphalt which later I was told was a local mill. Thank you guys for our great stay!!!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r286099201-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286099201</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Front desk clerk was very friendly and efficent. Rooms had new carpet and very clean. Very quiet considering lots of workers and big trucks. Would stay here again. Breakfast was great and kids enjoyed the pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r281213039-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281213039</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights and on the second night I had about a $1000 worth of cargo chains and binders stolen from my truck.  Front desk told me that they are not responsible for anything stolen or lost from the vehicles on the property.  I will never visit another Super 8 and will be passing this information on to other truckers.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r267788507-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267788507</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r267785053-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267785053</t>
+  </si>
+  <si>
+    <t>Very nice motel. New carpeting and VERY clean. Friendly...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice motel. New carpeting and VERY clean. Friendly staff. Conveniently located. Truck Parking. WhatABurger next door. Breakfast in lobby. Swimming pool. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r262567040-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262567040</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r260183614-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260183614</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>We stayed at the Super 8 in Houston and everyone who worked there was very friendly and accommodating.  The room was clean and it looked like it had  been remodeled recently.  The carpet was new and everything was clean.  The beds were a bit hard for our taste but overall, it was a very nice place to stay. Thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r259864833-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259864833</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Nice and clean. Free wifi</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and clean   Very friendly Staff and a great price!  I would recommend this one to family anytime.Fwe had a room facing the highway and we were not bothered by the noise from the highway. Very quiet</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r259159735-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259159735</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Convenient, Clean &amp; Spacious Rooms</t>
+  </si>
+  <si>
+    <t>This Super 8 is conveniently located on the edge of downtown along 610.  The room was more than I expected - large and very nicely appointed with a large comfortable chair and hassock.  The price was enticing, especially for a downtown location. I stayed there in the past and was glad to return this time and will probably do so again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r248146801-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248146801</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Lots of Trucks and truck drivers.The price was right,rooms...</t>
+  </si>
+  <si>
+    <t>Lots of Trucks and truck drivers.The price was right,rooms were fine.Difficult to get any coffee, pot ALWAYS empty!!!!!!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r244607544-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244607544</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Great great motel</t>
+  </si>
+  <si>
+    <t>This is an incredibly cost effective motel to stay in near Houston. The morning commute is less than an hour and as short as 20 minutes on a good day. The room and building are taken care of very well, everything is clean. The staff is very helpful.I stayed for business, am currently staying, and booked a 3rd stay already. I highly recommend this business.The only complaints I have is the wifi is iffy. It has rather high latency (fair with wifi) but the service provider seems to have frequent crashes. The access point will return errors, you're forced to sign in over and over again. The other complaint is breakfast. I am not a breakfast person and for me the breakfast was perfect, a waffle iron. For everyone else you will be unimpressed with the breakfast.Other notes, there is like nothing around the motel. This i'm sure is why the cost is so low. There are nearly no restaurants short of several miles away, similar for grocery stores.To summarize: 9/10 would stay again. Would be 10/10 if WIFI was better. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>This is an incredibly cost effective motel to stay in near Houston. The morning commute is less than an hour and as short as 20 minutes on a good day. The room and building are taken care of very well, everything is clean. The staff is very helpful.I stayed for business, am currently staying, and booked a 3rd stay already. I highly recommend this business.The only complaints I have is the wifi is iffy. It has rather high latency (fair with wifi) but the service provider seems to have frequent crashes. The access point will return errors, you're forced to sign in over and over again. The other complaint is breakfast. I am not a breakfast person and for me the breakfast was perfect, a waffle iron. For everyone else you will be unimpressed with the breakfast.Other notes, there is like nothing around the motel. This i'm sure is why the cost is so low. There are nearly no restaurants short of several miles away, similar for grocery stores.To summarize: 9/10 would stay again. Would be 10/10 if WIFI was better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r242323750-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242323750</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Room smelled like dirty socks or smelly feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is for single men trying to save some money. Not recommended for families. Room smelled like dirty socks or smelly feet. The carpet was dirty. Front desk person was not friendly at all. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r236744546-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236744546</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Okay enough</t>
+  </si>
+  <si>
+    <t>The area was quiet. The only thing that was concern to me was that I had to go to the front desk to borrow an iron board and iron!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r232761726-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232761726</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r228709480-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228709480</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Great Budget Hotel</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and courteous. Breakfast was a bit sparse but there is a What a Burger restaurant on the same lot making it easy to supplement. The pool was smallish however there were families with kids enjoying it. It seemed to us that about half the guests were truck drivers. There were a large number of 18 wheeler's on the lot but this made us feel very safe and secure. No one was going to mess around in THAT lot late at night ! We highly recommend this hotel for a budget trip and are returning in a week for  a medical apt in Houston.  With the micro fridge and free wi fi this is one of the best buys in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and courteous. Breakfast was a bit sparse but there is a What a Burger restaurant on the same lot making it easy to supplement. The pool was smallish however there were families with kids enjoying it. It seemed to us that about half the guests were truck drivers. There were a large number of 18 wheeler's on the lot but this made us feel very safe and secure. No one was going to mess around in THAT lot late at night ! We highly recommend this hotel for a budget trip and are returning in a week for  a medical apt in Houston.  With the micro fridge and free wi fi this is one of the best buys in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r214137459-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214137459</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r207944542-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207944542</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r207398348-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207398348</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>pissed customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were put  out at 2am Super 8 rep Dharmk was rude, then the police was called. We were stuck out of a room until the next morning because there was a event going on in Houston at that time. I would NEVER recommend this hotel to anyone even HPD agreed. They agreed that hotel rep was wrong and did not see the point in kicking us out. They took our money for our  3 day 2 night stay rsvp and we were in the room less than 30 minutes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r200980758-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200980758</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Very good for the price</t>
+  </si>
+  <si>
+    <t>The hotel had very easy access to the highway.  The room I was in great shape.  Reasonably quiet considering the highway location.  No problem with check- in or check-out.  A gem – considering the very reasonable price.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r196410583-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196410583</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r191342793-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191342793</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r177959973-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177959973</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r177268240-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177268240</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Good price and breakfast</t>
+  </si>
+  <si>
+    <t>i really enjoyed my stay here i came in town for a sporting event, price was good and breakfast was not bad either....location was exactly where i needed to be, ill definitely be back here in December. hopefully i will get the same rate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r174802285-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174802285</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r170617634-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170617634</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r167790690-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167790690</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>New &amp; Clean</t>
+  </si>
+  <si>
+    <t>The area may not be all that safe. I did drive to what a burger rather walk.   I stayed here for the location and value.  It seemed new and was very clean.  Had a good night sleep.  Will probably stay again.  Everyone at the front desk was very helpful.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r167346307-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167346307</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Fabulous Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had two different rooms and both were great. There was a slight glitch in  one of the tv's in which they switched it's promptly. Them property was clean, comfortable and safe...can't ask for more. </t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r157724973-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157724973</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Truck Broken into!!</t>
+  </si>
+  <si>
+    <t>Stayed here 3 days and my truck was broken into, after telling management I was told they are not responsible for damage ..No security on site, but they have cameras with bad focas. Other than the damage to my vehicle and them not having a security guard onsite and management not caring for the wellfare of their guest I guess it's a ok place to stay.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r151918439-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151918439</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>In and Out with Ease</t>
+  </si>
+  <si>
+    <t>Was staying for three nights for a college baseball tournament at Minute Maid Park downtown. Very easy access to three main highways and downtown for a fraction of the price of the metro hotels. Wasn't at the room much, but didn't have any issues or noticeable problems with them when there. Friendly staff during my brief interactions. No issues at all with my stay!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r151917713-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151917713</t>
+  </si>
+  <si>
+    <t>Great for Downtown</t>
+  </si>
+  <si>
+    <t>Was attending a baseball tournament at Minute Maid Park, and even with traffic, was a very inexpensive and short journey. Would qualify as that for most of downtown Houston. Very easy on and off 610 and close to I-10 and 59 N/S to get where you are going.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r132359853-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132359853</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Good Basic Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in May 2012 for four days.  The quality of the room is very good.They have rooms where the doors face on the outside of the building.  The bed and bedding were clean and fresh, the room seemed new and designed well. The bathroom facilities were spotless, see photos.  The checkin staff were extremely nice and pleasant.  As a basic clean hotel at a reasonalbe rate, this is it.  There are many semi trucks in the lot as there is much turnaround space, but they are not really too noisy. I didn't have a problem sleeping  The hotel is near hiway 610, what I call the inner loop that circles Houston, allows you to get to a lot of locatiions easily in Houston,  the hotel is in the north eastern part of Houston.  It doesn't have a supermarket or mall, or fancy restaurant nearby, you have to go a distance to get one.  There is a Whataburger adjacent to the hotel, that serves breakfast and fast food.The rooms have wifi.  The price is resonable. I recommend this hotel, if you have buisness in Houston and need a basic place to stay.  I was surprised how muchI liked the hotel, and how nice the people that run it are. Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in May 2012 for four days.  The quality of the room is very good.They have rooms where the doors face on the outside of the building.  The bed and bedding were clean and fresh, the room seemed new and designed well. The bathroom facilities were spotless, see photos.  The checkin staff were extremely nice and pleasant.  As a basic clean hotel at a reasonalbe rate, this is it.  There are many semi trucks in the lot as there is much turnaround space, but they are not really too noisy. I didn't have a problem sleeping  The hotel is near hiway 610, what I call the inner loop that circles Houston, allows you to get to a lot of locatiions easily in Houston,  the hotel is in the north eastern part of Houston.  It doesn't have a supermarket or mall, or fancy restaurant nearby, you have to go a distance to get one.  There is a Whataburger adjacent to the hotel, that serves breakfast and fast food.The rooms have wifi.  The price is resonable. I recommend this hotel, if you have buisness in Houston and need a basic place to stay.  I was surprised how muchI liked the hotel, and how nice the people that run it are. Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r121827891-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121827891</t>
+  </si>
+  <si>
+    <t>12/17/2011</t>
+  </si>
+  <si>
+    <t>Fair hotel, fair location: 10 minutes from downtown, 10 minutes from airport</t>
+  </si>
+  <si>
+    <t>a typical super 8: Fair basic hotel. reasonably location between airport (bush) and downtown. Rooms are quite clean though not recently renovated, breakfast is very basic (2 types of cheap cereals, bagel and cheese). Free wifi. For its moderate price, it's ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r114444650-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114444650</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Neither good nor bad</t>
+  </si>
+  <si>
+    <t>We stayed here before visiting the Downtown Aquarium on our way to NASA/Galveston.  I was an average hotel for an average price.  Not much to say.  It served its purpose for this tired family.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r13965858-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13965858</t>
+  </si>
+  <si>
+    <t>03/03/2008</t>
+  </si>
+  <si>
+    <t>Avoid Super 8</t>
+  </si>
+  <si>
+    <t>I know it's a Super 8, but for the price it was (not that cheap!) this hotel was a big disappointment.  There was an overwhealming smell of chemical perfume to cover up the smells and cigarette smell, cigarette burns in the blanket, towels that were far too small and thin for an average person to dry off.  Just an overall "no frills" situation, to the extreme.  Definitely not a good choice if you can help it.  One shouldn't pay more than $30 a night for this if you're just passing through- unbelievable that it goes for almost $70 per night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r4965797-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4965797</t>
+  </si>
+  <si>
+    <t>04/10/2006</t>
+  </si>
+  <si>
+    <t>no internet</t>
+  </si>
+  <si>
+    <t>i stayed here twice in april with my husband and a friend of mine. it was clean and comfortable however they did not have any internet access however there was a whataburger across the street.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1453,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1485,3643 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X17" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>159</v>
+      </c>
+      <c r="X20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s">
+        <v>212</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" t="s">
+        <v>223</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>240</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>246</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" t="s">
+        <v>254</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>255</v>
+      </c>
+      <c r="O40" t="s">
+        <v>261</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>267</v>
+      </c>
+      <c r="O41" t="s">
+        <v>137</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>271</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>273</v>
+      </c>
+      <c r="J43" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>275</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J44" t="s">
+        <v>278</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>279</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>281</v>
+      </c>
+      <c r="J45" t="s">
+        <v>282</v>
+      </c>
+      <c r="K45" t="s">
+        <v>283</v>
+      </c>
+      <c r="L45" t="s">
+        <v>284</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O45" t="s">
+        <v>261</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>286</v>
+      </c>
+      <c r="J46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>288</v>
+      </c>
+      <c r="O46" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>289</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>290</v>
+      </c>
+      <c r="J47" t="s">
+        <v>291</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>288</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>293</v>
+      </c>
+      <c r="J48" t="s">
+        <v>294</v>
+      </c>
+      <c r="K48" t="s">
+        <v>295</v>
+      </c>
+      <c r="L48" t="s">
+        <v>296</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>297</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" t="s">
+        <v>300</v>
+      </c>
+      <c r="K49" t="s">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s">
+        <v>302</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>303</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" t="s">
+        <v>307</v>
+      </c>
+      <c r="L50" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>310</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>311</v>
+      </c>
+      <c r="J51" t="s">
+        <v>312</v>
+      </c>
+      <c r="K51" t="s">
+        <v>313</v>
+      </c>
+      <c r="L51" t="s">
+        <v>314</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>315</v>
+      </c>
+      <c r="O51" t="s">
+        <v>137</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" t="s">
+        <v>312</v>
+      </c>
+      <c r="K52" t="s">
+        <v>318</v>
+      </c>
+      <c r="L52" t="s">
+        <v>319</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>315</v>
+      </c>
+      <c r="O52" t="s">
+        <v>137</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>321</v>
+      </c>
+      <c r="J53" t="s">
+        <v>322</v>
+      </c>
+      <c r="K53" t="s">
+        <v>323</v>
+      </c>
+      <c r="L53" t="s">
+        <v>324</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>325</v>
+      </c>
+      <c r="O53" t="s">
+        <v>137</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>328</v>
+      </c>
+      <c r="J54" t="s">
+        <v>329</v>
+      </c>
+      <c r="K54" t="s">
+        <v>330</v>
+      </c>
+      <c r="L54" t="s">
+        <v>331</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>332</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>333</v>
+      </c>
+      <c r="J55" t="s">
+        <v>334</v>
+      </c>
+      <c r="K55" t="s">
+        <v>335</v>
+      </c>
+      <c r="L55" t="s">
+        <v>336</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>337</v>
+      </c>
+      <c r="O55" t="s">
+        <v>74</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>338</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>339</v>
+      </c>
+      <c r="J56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K56" t="s">
+        <v>341</v>
+      </c>
+      <c r="L56" t="s">
+        <v>342</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>343</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>344</v>
+      </c>
+      <c r="J57" t="s">
+        <v>345</v>
+      </c>
+      <c r="K57" t="s">
+        <v>346</v>
+      </c>
+      <c r="L57" t="s">
+        <v>347</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_627.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_627.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r595740203-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>266326</t>
+  </si>
+  <si>
+    <t>595740203</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Nice super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was friendly. They also have truck parking that is paved. There are cameras everywhere which makes me feel safe. The beds are very comfortable and I just love the pillows. Will definitely stay here again </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r584337238-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584337238</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent service, very clean, friendly staff</t>
+  </si>
+  <si>
+    <t>Excellent service, very clean, love the hard floors which reduce allergens and are much cleaner than carpet. Friendly staff that are very responsive to guest needs. Location was perfect for my needs, and they have parking for big rigs</t>
+  </si>
+  <si>
+    <t>May 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r581046148-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>266326</t>
-  </si>
-  <si>
     <t>581046148</t>
   </si>
   <si>
@@ -174,9 +213,6 @@
     <t xml:space="preserve">Room was clean and nice looking bed was very comfy did not eat breakfast so not sure how it was the only issue I had was the area was kinda sketchy the staff was nice and curteious the ac worked very well with nice TVs and dish network </t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -195,9 +231,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
@@ -216,6 +249,36 @@
     <t>Stuck in Houston over the 4th of July, nice hotel with truck parking. Room was clean, no problems, paid extra so I could check in at 4am when I arrived, but that was better than waiting for another 12 hours..</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r486411866-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486411866</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>over night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a well kept motel.  It mainly is used by truckers and weekly workers from out of town.  Looks like it was recently update.  Rooms nice. Breakfast usual fare.  Behind a Whataburger, which is nice to walk to after a long road trip.  Management's  attitude in like, okay you are here.  not warm reception. Good for overnight. Would not stay longer, nor would I stay if I have children. Pool gate was chained closed, but pool did have water and looked cleaned. But it didn't matter, would not use it there anyway.  s </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r481592299-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481592299</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r478981626-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -225,9 +288,6 @@
     <t>04/25/2017</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r470874965-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,6 +312,36 @@
     <t>03/09/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r464823898-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464823898</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r464389375-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464389375</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Great value- Highly recommend</t>
+  </si>
+  <si>
+    <t>Great value for the price. Friend at hospital next door to hotel so I stayed 3 nights and rented an additional room for family member. Everyone commented on clean room with nice scent. Parking lot was pressure washed as well. Bed was comfortable and staff was friendly. Washers and dryers worked well. For the money it was a great value overall. Highly recommend.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r461550666-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -267,9 +357,6 @@
     <t xml:space="preserve">Booked this hotel on a business trip prior to a pleasure trip to Houston. I was happy to see the property in such fine shape. The rooms look like they have recently been updated. My stay there was very relaxing. I will stay here again. </t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r435323847-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -306,6 +393,39 @@
     <t>Excellent clean hotel with plenty of truck parking. Love the HD channels, so many to choose from. Larger TV's recommended but they have decent Samsung TV's.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r411640928-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411640928</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for the money. </t>
+  </si>
+  <si>
+    <t>Good price. Close to the interstate. Nice clean rooms. Free Wi-Fi and hot breakfast. Has pool, Jacuzzi rooms and Dish TV and smoking rooms. Lots of semi parking. Good parking for cars and the gas station across the street and a fast food place to eat right next door. I would stay here again</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r405716466-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405716466</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Better than Expected!</t>
+  </si>
+  <si>
+    <t>Afternoon staff was friendly. Breakfast was accommodating. The room was really nice (much better than I expected for the price). Surveillance was provided for the building and parking lots. Felt Secure and Safe.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r405324716-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,9 +441,6 @@
     <t xml:space="preserve">Super 8 has great service but the swimming was in an odd location in front of all the trucks and the office </t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r391391940-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,6 +468,45 @@
     <t>Super nice, friendly, clean. We were in the room till 2ish one day and they still cleaned it. Breakfast was good every day! If ever come back to the area would definitely stay! Front desk staff was very helpful and friendly! My husband was here for a convention, I stayed in the room all morning, very quiet.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r364891171-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364891171</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Worse Night Ever</t>
+  </si>
+  <si>
+    <t>Did not know that this was a high crime area for city of Houston.Although motel itself was ok for the price. The constant appearance for police at the Whataburger next to motel wasn't particularly appealing to a visitor.And my next to last night stay was interrupted twice at 1 and 1:30 AM for fire alarms and then by 2:30 in the morning it was the police, why because someone smashed into the lobby to steal the atm machine.So after no sleep that night you would think the motel would apologize and refund a nights' stay on your bill but that didn't happen. Will not stay at that motel or any other in that area againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Did not know that this was a high crime area for city of Houston.Although motel itself was ok for the price. The constant appearance for police at the Whataburger next to motel wasn't particularly appealing to a visitor.And my next to last night stay was interrupted twice at 1 and 1:30 AM for fire alarms and then by 2:30 in the morning it was the police, why because someone smashed into the lobby to steal the atm machine.So after no sleep that night you would think the motel would apologize and refund a nights' stay on your bill but that didn't happen. Will not stay at that motel or any other in that area againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r357612604-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357612604</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, General Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r351921294-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -372,9 +528,6 @@
     <t>Super8TeamMember, Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded March 23, 2016</t>
   </si>
   <si>
-    <t>Responded March 23, 2016</t>
-  </si>
-  <si>
     <t>This was a fine place to stay for a night. Whataburger next door so that was close for a quick supper. Place was clean and appeared well maintained.More</t>
   </si>
   <si>
@@ -417,6 +570,48 @@
     <t>For the price, I was pleasantly surprised with my stay last week, &amp; opted to stay here again this week, since it had the most reasonable rates of any hotels I could find within a 15 minute drive of my destination downtown. Lots of truckers seem to stay here, which is fine by me, as both of my stays were nice &amp; quiet. Even though it was near the highway, I didn't notice much traffic noise.  Room &amp; lobby were clean, &amp; the staff I encountered were all friendly &amp; helpful. I would have rated it 4 stars, but the fridge during my 2nd stay didn't work, &amp; the beds were too firm for my liking. I'd stay here again though. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r344532265-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344532265</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Clean, quiet, well-managed hotel</t>
+  </si>
+  <si>
+    <t>I stayed here 7 nights and enjoyed the stay.  I don't eat breakfast so can't comment on that.  The rooms large, recently remodeled and  clean, with attractive décor.  It was quiet at night for sleeping and felt like a safe place.  The surrounding area has an industrial feel, and Subway and Whataburger are the only restaurants within walking distance.  But driving there are plenty of places east on 610 and south on 59 for instance.  I have no complaints about the hotel; staff are friendly, helpful and professional.  WIFI was very reliable--you just have to log back into the system occasionally if you stay on for long periods.  They also have a great lineup of Dish TV channels, including IFC.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Guest Relations Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here 7 nights and enjoyed the stay.  I don't eat breakfast so can't comment on that.  The rooms large, recently remodeled and  clean, with attractive décor.  It was quiet at night for sleeping and felt like a safe place.  The surrounding area has an industrial feel, and Subway and Whataburger are the only restaurants within walking distance.  But driving there are plenty of places east on 610 and south on 59 for instance.  I have no complaints about the hotel; staff are friendly, helpful and professional.  WIFI was very reliable--you just have to log back into the system occasionally if you stay on for long periods.  They also have a great lineup of Dish TV channels, including IFC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r327194115-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327194115</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Super8TeamMember, Guest Relations Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r323753196-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -429,15 +624,9 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Super8TeamMember, Front Office Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 23, 2015</t>
   </si>
   <si>
-    <t>Responded November 23, 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r322459799-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -483,6 +672,24 @@
     <t>Love the rooms very nice and clean service was amazing front desk very nice very welcoming definitly staying again More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r320509057-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320509057</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r320254860-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320254860</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r316136376-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -495,9 +702,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Super8TeamMember, Guest Relations Manager at Super 8 by Wyndham Houston/Dtwn/I-610, responded to this reviewResponded November 23, 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r313644448-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -528,6 +732,39 @@
     <t>This hotel was one of the cleanest I've seen in a while. The rooms were spotless and smelled wonderful. I feel like I got a real deal with rate we paid. The only issues I had was a lack of towels on one occasion.  They took the old ones, but didn't leave new ones.  There are two bus routes to and from downtown that come right to the motel, so I found that quite convenient. It took about 30 minutes to get downtown on the bus, but it was worth it to not have to worry with parking. The area surrounding the motel is not the fancy part of town by any means, but I always felt safe.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r292425437-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292425437</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Avoid with children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This motel is pretty much a truckers stop over, I was afraid to let children (11 &amp; 13) go to car alone that was parked just outside of the room. The a/c was off upon arrival and took hours to cool off the room.. With 100 degree temps outside one would think it would have at least been on low. I booked room for 4, but only towels for 2. during breakfast hours (6a-9a) we asked for more waffle batter, clerk told us no! Next visit to Houston I will pay double just not to stay at this location. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r290446457-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290446457</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>The staff was friendly. The room was clean. The area is...</t>
+  </si>
+  <si>
+    <t>The staff was friendly. The room was clean. The area is very industrial, however, so there are no restaurants or things to do in the immediate vicinity. The continental breakfast did not have much to offer, but there is a Whataburger right next door.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r286217218-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -543,9 +780,6 @@
     <t>We stayed one night &amp; was surprised to have such a nice front desk. They had our keys ready and we were checked in within minutes. The pool was very nice &amp; clean. The rooms were spacious and up to date. The only complaint was that the entire hotel surrounding smelled like fresh asphalt which later I was told was a local mill. Thank you guys for our great stay!!!</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r286099201-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -576,6 +810,36 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r274918401-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274918401</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r271533547-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271533547</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Employee did not know what his own hotel offered</t>
+  </si>
+  <si>
+    <t>Front desk employee could not find my reservation even though i had my reservation number. When I booked there were plenty of non smoking king size beds and when i arrived (which was only a few minutes after) they were all gone so we had to get a room with two beds, I asked him if the beds were at least queen size and he said yes, when we went to the room the beds were full size. We also asked if they had complimentary toothbrush and toothpaste and he assured us that it was in the room... of course there was no such things in there... over all very bad costumer service.... No conditioner or body lotion in rooms either..MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk employee could not find my reservation even though i had my reservation number. When I booked there were plenty of non smoking king size beds and when i arrived (which was only a few minutes after) they were all gone so we had to get a room with two beds, I asked him if the beds were at least queen size and he said yes, when we went to the room the beds were full size. We also asked if they had complimentary toothbrush and toothpaste and he assured us that it was in the room... of course there was no such things in there... over all very bad costumer service.... No conditioner or body lotion in rooms either..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r267788507-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -585,6 +849,12 @@
     <t>04/24/2015</t>
   </si>
   <si>
+    <t>Clean and Fairly New</t>
+  </si>
+  <si>
+    <t>This was a perfect hotel for me on my first visit to Houston. Right on the Interstate with a What A Burger and a Convenience Store next door and across the street. No other amenities nearby; but everything I needed at a very reasonable rate.</t>
+  </si>
+  <si>
     <t>April 2015</t>
   </si>
   <si>
@@ -612,15 +882,42 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r260415216-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260415216</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Pretty nice motel</t>
+  </si>
+  <si>
+    <t>It was very nice and clean and affordable wish had more for breakfast and gym. We had a little problem with the TV but staff fix it for us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r260223560-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260223560</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Another awesome stay !!</t>
+  </si>
+  <si>
+    <t>This hotel just seems to be getting better and better. New HD cable TV was awesome, just what a tied truck driver needs when he just wants to relax , kick back and watch tv.Super Start breakfast was awesome.Staff were awesome and property was clean always.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r260183614-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
     <t>260183614</t>
   </si>
   <si>
-    <t>03/17/2015</t>
-  </si>
-  <si>
     <t>Very nice!</t>
   </si>
   <si>
@@ -657,6 +954,33 @@
     <t>This Super 8 is conveniently located on the edge of downtown along 610.  The room was more than I expected - large and very nicely appointed with a large comfortable chair and hassock.  The price was enticing, especially for a downtown location. I stayed there in the past and was glad to return this time and will probably do so again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r256412718-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256412718</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent Over-nighter</t>
+  </si>
+  <si>
+    <t>I had very courteous service from beginning to end. The room was very clean and quiet. The microwave and compact refrigerator was a great convenience for me also. The breakfast the next morning was perfect for me to start my day. Overall I recommend this facility to any traveler</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r253244802-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253244802</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r248146801-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -711,6 +1035,36 @@
     <t xml:space="preserve">This hotel is for single men trying to save some money. Not recommended for families. Room smelled like dirty socks or smelly feet. The carpet was dirty. Front desk person was not friendly at all. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r240777283-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240777283</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Good Accomodations</t>
+  </si>
+  <si>
+    <t>Visit was a last minute reservation for a family emergency. It was such a relief to  find the Super 8 so comfortable and well cared for. The staff were all very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r239845387-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239845387</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>just looking for a nice quiet place to sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks can be deceiving, lots of truckers parked in lot, but they are their for same reason as us: a nice quiet place to sleep, clean comfortable rooms, young lady at night desk, I  think her name was Marie, great customer service to our request, very  accommodating.  Would stay there again, good hotel at a good reasonable price. Only thing, it was unusually cold for Houston, heater made noise but it kept room at comfortable temp.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r236744546-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -762,6 +1116,42 @@
     <t>Clean, comfortable and courteous. Breakfast was a bit sparse but there is a What a Burger restaurant on the same lot making it easy to supplement. The pool was smallish however there were families with kids enjoying it. It seemed to us that about half the guests were truck drivers. There were a large number of 18 wheeler's on the lot but this made us feel very safe and secure. No one was going to mess around in THAT lot late at night ! We highly recommend this hotel for a budget trip and are returning in a week for  a medical apt in Houston.  With the micro fridge and free wi fi this is one of the best buys in Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r223149387-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223149387</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>A good place to rest</t>
+  </si>
+  <si>
+    <t>Check in was quick. My wife and I was able to watch a few movies on the nice tv in peace after a long day. The non-smoking room was great because we did not smell any smoke. The room was clean accepted a q-tip under the dresser. The refrigerator didn't get as cold as we would have liked it. Breakfast needs work. No tonsils to get the bread so you have to reach in with your hands. The orange juice didn't seem like regular orange juice. They have safe parking with cameras. Now back to work for me. Overall this is a good place to rest at a good price. MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was quick. My wife and I was able to watch a few movies on the nice tv in peace after a long day. The non-smoking room was great because we did not smell any smoke. The room was clean accepted a q-tip under the dresser. The refrigerator didn't get as cold as we would have liked it. Breakfast needs work. No tonsils to get the bread so you have to reach in with your hands. The orange juice didn't seem like regular orange juice. They have safe parking with cameras. Now back to work for me. Overall this is a good place to rest at a good price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r214291470-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214291470</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a nice hotel.  Room are fresh and clean. Front desk staff very friendly and helpful.  Location is great with easy access to 6-10 freeway.  There is a What-a-burger in the same parking lot which makes it easy to grab a bite.   </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r214137459-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -771,9 +1161,6 @@
     <t>07/07/2014</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r207944542-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -804,6 +1191,30 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r205244758-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205244758</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r204443702-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204443702</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Nice property but...</t>
+  </si>
+  <si>
+    <t>Bring your own conditioner. This place will not provide it for you. The room furnishings and the comforters look like they are from the early 90's. Also it's very hard to see. I thought it was my eyes but I checked the bulbs and they are probably the smallest CFL's I have ever seen. I paid over $100 a night with tax and it's hard not to feel like I got taken... :/</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r200980758-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -846,6 +1257,36 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r185889504-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185889504</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r181288285-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181288285</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>I love this Hotel :)</t>
+  </si>
+  <si>
+    <t>2nd time here and I love the large truck parking and great location, rooms were very clean with coffeemaker, micro way and fridge. Staff was excellent! Just delicious breakfast with self make waffles and syrup :)Very reasonable rate for the Houston. Overall I was very satisfied and would definitely recommend to anyone.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r177959973-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1326,39 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r172255243-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172255243</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Big parking lot, large rooms, really good a/c !!!   :-)</t>
+  </si>
+  <si>
+    <t>stayed for almost a week here and everything was great.housekeeping was very efficient and front desk was friendly.Very spacious rooms and the air conditioner worked great.the parking lot was able to accommodate ten buses plus all the trucks that were there</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r171895972-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171895972</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Nothing fancy - a truck stop</t>
+  </si>
+  <si>
+    <t>This hotel seems to be really popular for truckies wanting to get a nights sleep before hitting to road again. So, as you can imagine they rise quite early so you may be woken or affected by this. Our room was fine, the a/c wasn't working properly so i called reception and they said they would send someone up...they sent up a lady who couldn't speak a word of English and proceeded to speak Spanish to my husband - lucky i could speak Spanish as i don't think their hand signals between one another would have cut it. Not sure why they sent someone up to us who couldn't speak English when we were clearly English speaking travellers.There is no elevator which was annoying as we are doing a large trip we had quite heavy bags that we had to carry up the stairs. There is a pool but its quite small and right on the road side so no privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel seems to be really popular for truckies wanting to get a nights sleep before hitting to road again. So, as you can imagine they rise quite early so you may be woken or affected by this. Our room was fine, the a/c wasn't working properly so i called reception and they said they would send someone up...they sent up a lady who couldn't speak a word of English and proceeded to speak Spanish to my husband - lucky i could speak Spanish as i don't think their hand signals between one another would have cut it. Not sure why they sent someone up to us who couldn't speak English when we were clearly English speaking travellers.There is no elevator which was annoying as we are doing a large trip we had quite heavy bags that we had to carry up the stairs. There is a pool but its quite small and right on the road side so no privacy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r170617634-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1404,39 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r164189439-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164189439</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r160071124-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160071124</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Nice stay-but a warning</t>
+  </si>
+  <si>
+    <t>When I travel I don't need fancy--just a clean, safe place.  For those factors this hotel met my expectations.  I was going to a conference in downtown Houston and this was the ideal location for that.  BUT---the internet was down from Wednesday-Saturday--and the staff acted as if this was a common occurance and weren't concerned about the inconvenience this caused.  WARNING--on my last day there a friend was also checking in and wanted to verify that this was the hotel where I was staying.  They did verify that fact----but also gave her my room number.  As a woman traveling alone, safety and security is an important factor to me--and this violated that.  The desk should never give a room number to someone else!I would probably stay at that hotel again-but would be perfectly clear about them not releasing information!  Also that the room number is not written on the key.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>When I travel I don't need fancy--just a clean, safe place.  For those factors this hotel met my expectations.  I was going to a conference in downtown Houston and this was the ideal location for that.  BUT---the internet was down from Wednesday-Saturday--and the staff acted as if this was a common occurance and weren't concerned about the inconvenience this caused.  WARNING--on my last day there a friend was also checking in and wanted to verify that this was the hotel where I was staying.  They did verify that fact----but also gave her my room number.  As a woman traveling alone, safety and security is an important factor to me--and this violated that.  The desk should never give a room number to someone else!I would probably stay at that hotel again-but would be perfectly clear about them not releasing information!  Also that the room number is not written on the key.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r157724973-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1485,42 @@
     <t>Was attending a baseball tournament at Minute Maid Park, and even with traffic, was a very inexpensive and short journey. Would qualify as that for most of downtown Houston. Very easy on and off 610 and close to I-10 and 59 N/S to get where you are going.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r151430049-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151430049</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>"Great staff and trucker friendly"</t>
+  </si>
+  <si>
+    <t>I am a truck and this hotel has everthing a trucker needs, clean room, quite location, great service and most important of all truck parking on the property. The also have guest washer / dryer. The staff could not have been nicer or more helpful. It was such a nice suprise since so many people today are rude and do not understand the meaning of the phrase "customer service". I would absolutely stay here again and agian when in Houston and would recommend it to friends.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r133355687-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133355687</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Clean, available</t>
+  </si>
+  <si>
+    <t>I've stayed here before, and have yet to be disappointed with a room. Laundry facilities were hot and dirty, and the continental breakfast was almost non-existant. (Good thing there is a Whataburger next door.) Staff were (as always) friendly and helpful.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r132359853-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1573,39 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r113163763-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113163763</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Ended OK</t>
+  </si>
+  <si>
+    <t>Check-in was smooth. While in the room I noticed there were condom wrappers in the drawer and the toilet was stopped up. The person at the front desk told me he would get "ME" a plunger.... I did not like that at all.  Although I was upset I used the plunger that did NOT help.  I was given another room :-)  The "so-called" breakfast was a joke. Stale muffins and mini donuts, cereal and oatmeal (yuck) By the way the juice was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r64210438-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>64210438</t>
+  </si>
+  <si>
+    <t>05/15/2010</t>
+  </si>
+  <si>
+    <t>very friendly staff!</t>
+  </si>
+  <si>
+    <t>stayed here for 10 days, very well located for our purpose, shopping! just outside of houston, near Katy Mills mall. plenty of restaurants nearby, and very friendly staff! everything we asked for was promply supplied, and when we wanted to book some extra nights we were given a good price. breakfast was very basic .... but still, for this price a good buy!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266326-r13965858-Super_8_by_Wyndham_Houston_Dtwn_I_610-Houston_Texas.html</t>
@@ -1594,7 +2170,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1602,22 +2178,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1654,18 +2220,20 @@
       <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s"/>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1674,14 +2242,14 @@
         <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1689,7 +2257,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1705,50 +2273,50 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1756,7 +2324,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1787,12 +2355,14 @@
         <v>68</v>
       </c>
       <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1801,24 +2371,26 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1833,53 +2405,59 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1894,7 +2472,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1903,24 +2481,28 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
@@ -1933,14 +2515,16 @@
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1955,7 +2539,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1964,50 +2548,44 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
-      <c r="Y8" t="s">
-        <v>82</v>
-      </c>
+      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2022,7 +2600,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2031,40 +2609,44 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>86</v>
       </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
       <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>90</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2079,59 +2661,53 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>91</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>93</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>94</v>
       </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>95</v>
-      </c>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2146,59 +2722,53 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s">
-        <v>100</v>
-      </c>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2213,7 +2783,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2222,37 +2792,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2274,48 +2844,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>106</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
         <v>107</v>
       </c>
-      <c r="J13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -2331,62 +2911,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
         <v>111</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>112</v>
       </c>
-      <c r="J14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" t="s">
-        <v>115</v>
-      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>117</v>
-      </c>
-      <c r="X14" t="s">
-        <v>118</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -2402,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2411,25 +2987,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2440,14 +3016,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>125</v>
-      </c>
-      <c r="X15" t="s">
-        <v>118</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -2463,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2472,39 +3044,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
@@ -2520,7 +3102,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2529,51 +3111,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O17" t="s">
-        <v>137</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>138</v>
-      </c>
-      <c r="X17" t="s">
-        <v>139</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
@@ -2589,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2598,25 +3168,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2628,19 +3198,15 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>145</v>
-      </c>
-      <c r="X18" t="s">
-        <v>146</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -2656,7 +3222,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2665,53 +3231,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>153</v>
-      </c>
-      <c r="X19" t="s">
-        <v>139</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -2727,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2736,52 +3298,44 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s"/>
-      <c r="L20" t="s">
-        <v>57</v>
-      </c>
+      <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>159</v>
-      </c>
-      <c r="X20" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>60</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2796,7 +3350,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2805,47 +3359,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="K21" t="s">
+        <v>148</v>
+      </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -2861,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2870,41 +3416,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2912,7 +3454,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -2928,7 +3470,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2937,39 +3479,51 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>161</v>
+      </c>
+      <c r="X23" t="s">
+        <v>162</v>
+      </c>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -2985,7 +3539,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2994,45 +3548,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
       <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>169</v>
+      </c>
+      <c r="X24" t="s">
+        <v>162</v>
+      </c>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
@@ -3048,7 +3610,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3057,25 +3619,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3086,10 +3648,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>176</v>
+      </c>
+      <c r="X25" t="s">
+        <v>162</v>
+      </c>
       <c r="Y25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -3105,7 +3671,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3114,44 +3680,40 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="K26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" t="s">
+        <v>182</v>
+      </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="Y26" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3166,7 +3728,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3175,16 +3737,16 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" t="s">
-        <v>193</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3193,31 +3755,29 @@
         <v>189</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>190</v>
+      </c>
+      <c r="X27" t="s">
+        <v>162</v>
+      </c>
       <c r="Y27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28">
@@ -3233,53 +3793,61 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" t="s">
         <v>194</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>195</v>
       </c>
-      <c r="J28" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>197</v>
-      </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
+      <c r="W28" t="s">
+        <v>196</v>
+      </c>
+      <c r="X28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3308,20 +3876,18 @@
       <c r="J29" t="s">
         <v>200</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>201</v>
       </c>
-      <c r="L29" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>197</v>
-      </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3337,15 +3903,19 @@
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>202</v>
+      </c>
+      <c r="X29" t="s">
+        <v>197</v>
+      </c>
       <c r="Y29" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -3385,17 +3955,19 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3403,10 +3975,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>208</v>
+      </c>
+      <c r="X30" t="s">
+        <v>209</v>
+      </c>
       <c r="Y30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -3422,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3431,32 +4007,38 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>137</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3464,10 +4046,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>216</v>
+      </c>
+      <c r="X31" t="s">
+        <v>197</v>
+      </c>
       <c r="Y31" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
@@ -3483,7 +4069,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3492,25 +4078,23 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" t="s">
-        <v>216</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3518,17 +4102,27 @@
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>196</v>
+      </c>
+      <c r="X32" t="s">
+        <v>197</v>
+      </c>
       <c r="Y32" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -3544,7 +4138,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3553,25 +4147,23 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J33" t="s">
-        <v>221</v>
-      </c>
-      <c r="K33" t="s">
-        <v>222</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3580,7 +4172,7 @@
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3592,10 +4184,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>216</v>
+      </c>
+      <c r="X33" t="s">
+        <v>197</v>
+      </c>
       <c r="Y33" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -3611,46 +4207,44 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" t="s">
         <v>226</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
         <v>227</v>
       </c>
-      <c r="J34" t="s">
-        <v>228</v>
-      </c>
-      <c r="K34" t="s">
-        <v>229</v>
-      </c>
-      <c r="L34" t="s">
-        <v>230</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>224</v>
-      </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3659,10 +4253,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>196</v>
+      </c>
+      <c r="X34" t="s">
+        <v>197</v>
+      </c>
       <c r="Y34" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -3678,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3687,37 +4285,35 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3729,7 +4325,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -3745,7 +4341,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3754,30 +4350,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
-        <v>239</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>233</v>
+      </c>
+      <c r="K36" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" t="s">
+        <v>235</v>
+      </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -3791,7 +4391,9 @@
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
+      <c r="Y36" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3806,46 +4408,50 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" t="s">
         <v>241</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>242</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
         <v>243</v>
       </c>
-      <c r="K37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L37" t="s">
-        <v>245</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>246</v>
-      </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3853,7 +4459,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
@@ -3869,39 +4475,43 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J38" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s">
         <v>248</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>249</v>
-      </c>
-      <c r="J38" t="s">
-        <v>250</v>
-      </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -3915,7 +4525,9 @@
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
+      <c r="Y38" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3930,53 +4542,49 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" t="s">
         <v>252</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>253</v>
       </c>
-      <c r="J39" t="s">
-        <v>254</v>
-      </c>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
+      <c r="Y39" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3991,50 +4599,46 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>254</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" t="s">
         <v>256</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>257</v>
       </c>
-      <c r="J40" t="s">
-        <v>258</v>
-      </c>
-      <c r="K40" t="s">
-        <v>259</v>
-      </c>
-      <c r="L40" t="s">
-        <v>260</v>
-      </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O40" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4042,7 +4646,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41">
@@ -4058,58 +4662,48 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" t="s">
+        <v>260</v>
+      </c>
+      <c r="K41" t="s">
+        <v>261</v>
+      </c>
+      <c r="L41" t="s">
         <v>262</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>263</v>
       </c>
-      <c r="J41" t="s">
-        <v>264</v>
-      </c>
-      <c r="K41" t="s">
-        <v>265</v>
-      </c>
-      <c r="L41" t="s">
-        <v>266</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>267</v>
-      </c>
       <c r="O41" t="s">
-        <v>137</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
@@ -4125,7 +4719,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4134,37 +4728,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J42" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4186,53 +4780,53 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>269</v>
+      </c>
+      <c r="J43" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" t="s">
+        <v>271</v>
+      </c>
+      <c r="L43" t="s">
         <v>272</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>273</v>
-      </c>
-      <c r="J43" t="s">
-        <v>274</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
+      <c r="Y43" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4247,53 +4841,59 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" t="s">
         <v>276</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>277</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>278</v>
       </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
         <v>279</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4320,13 +4920,13 @@
         <v>281</v>
       </c>
       <c r="J45" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" t="s">
         <v>282</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>283</v>
-      </c>
-      <c r="L45" t="s">
-        <v>284</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4335,12 +4935,14 @@
         <v>279</v>
       </c>
       <c r="O45" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
@@ -4357,7 +4959,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46">
@@ -4373,19 +4975,19 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
         <v>285</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>286</v>
-      </c>
-      <c r="J46" t="s">
-        <v>287</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4393,16 +4995,16 @@
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O46" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
         <v>5</v>
@@ -4434,30 +5036,34 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>288</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
         <v>289</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>290</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>291</v>
       </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+      <c r="L47" t="s">
+        <v>292</v>
+      </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O47" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4466,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -4480,7 +5086,9 @@
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4495,7 +5103,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4504,49 +5112,39 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
@@ -4574,22 +5172,22 @@
         <v>299</v>
       </c>
       <c r="J49" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" t="s">
         <v>300</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>301</v>
       </c>
-      <c r="L49" t="s">
-        <v>302</v>
-      </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4598,14 +5196,14 @@
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4613,7 +5211,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
@@ -4629,50 +5227,44 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" t="s">
         <v>304</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>305</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>306</v>
       </c>
-      <c r="K50" t="s">
-        <v>307</v>
-      </c>
-      <c r="L50" t="s">
-        <v>308</v>
-      </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4680,7 +5272,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
@@ -4696,50 +5288,44 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>307</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>308</v>
+      </c>
+      <c r="J51" t="s">
+        <v>309</v>
+      </c>
+      <c r="K51" t="s">
         <v>310</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>311</v>
       </c>
-      <c r="J51" t="s">
-        <v>312</v>
-      </c>
-      <c r="K51" t="s">
-        <v>313</v>
-      </c>
-      <c r="L51" t="s">
-        <v>314</v>
-      </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s">
-        <v>137</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
         <v>5</v>
       </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4747,7 +5333,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52">
@@ -4763,50 +5349,50 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>313</v>
+      </c>
+      <c r="J52" t="s">
+        <v>314</v>
+      </c>
+      <c r="K52" t="s">
+        <v>315</v>
+      </c>
+      <c r="L52" t="s">
         <v>316</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>317</v>
       </c>
-      <c r="J52" t="s">
-        <v>312</v>
-      </c>
-      <c r="K52" t="s">
-        <v>318</v>
-      </c>
-      <c r="L52" t="s">
-        <v>319</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s">
-        <v>315</v>
-      </c>
       <c r="O52" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -4814,7 +5400,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53">
@@ -4830,40 +5416,36 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>319</v>
+      </c>
+      <c r="J53" t="s">
         <v>320</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
-        <v>321</v>
-      </c>
-      <c r="J53" t="s">
-        <v>322</v>
-      </c>
-      <c r="K53" t="s">
-        <v>323</v>
-      </c>
-      <c r="L53" t="s">
-        <v>324</v>
-      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
         <v>4</v>
@@ -4880,9 +5462,7 @@
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>326</v>
-      </c>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4897,7 +5477,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -4906,45 +5486,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J54" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+      <c r="N54" t="s">
+        <v>326</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>3</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55">
@@ -4960,46 +5538,50 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>328</v>
+      </c>
+      <c r="J55" t="s">
+        <v>329</v>
+      </c>
+      <c r="K55" t="s">
+        <v>330</v>
+      </c>
+      <c r="L55" t="s">
+        <v>331</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
         <v>332</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
-        <v>333</v>
-      </c>
-      <c r="J55" t="s">
-        <v>334</v>
-      </c>
-      <c r="K55" t="s">
-        <v>335</v>
-      </c>
-      <c r="L55" t="s">
-        <v>336</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3</v>
-      </c>
-      <c r="N55" t="s">
-        <v>337</v>
-      </c>
       <c r="O55" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5007,7 +5589,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56">
@@ -5023,44 +5605,58 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>334</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>335</v>
+      </c>
+      <c r="J56" t="s">
+        <v>336</v>
+      </c>
+      <c r="K56" t="s">
+        <v>337</v>
+      </c>
+      <c r="L56" t="s">
         <v>338</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
-        <v>339</v>
-      </c>
-      <c r="J56" t="s">
-        <v>340</v>
-      </c>
-      <c r="K56" t="s">
-        <v>341</v>
-      </c>
-      <c r="L56" t="s">
-        <v>342</v>
-      </c>
       <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>332</v>
+      </c>
+      <c r="O56" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57">
@@ -5076,38 +5672,44 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>339</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>340</v>
+      </c>
+      <c r="J57" t="s">
+        <v>341</v>
+      </c>
+      <c r="K57" t="s">
+        <v>342</v>
+      </c>
+      <c r="L57" t="s">
         <v>343</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>344</v>
-      </c>
-      <c r="J57" t="s">
-        <v>345</v>
-      </c>
-      <c r="K57" t="s">
-        <v>346</v>
-      </c>
-      <c r="L57" t="s">
-        <v>347</v>
-      </c>
       <c r="M57" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>332</v>
+      </c>
+      <c r="O57" t="s">
+        <v>94</v>
+      </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
         <v>4</v>
       </c>
-      <c r="R57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
       <c r="S57" t="n">
         <v>4</v>
       </c>
@@ -5121,7 +5723,2425 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>344</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>345</v>
+      </c>
+      <c r="J58" t="s">
+        <v>346</v>
+      </c>
+      <c r="K58" t="s">
         <v>347</v>
+      </c>
+      <c r="L58" t="s">
+        <v>348</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>332</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>350</v>
+      </c>
+      <c r="J59" t="s">
+        <v>351</v>
+      </c>
+      <c r="K59" t="s">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s">
+        <v>353</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>354</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>355</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>356</v>
+      </c>
+      <c r="J60" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>358</v>
+      </c>
+      <c r="O60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>359</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>360</v>
+      </c>
+      <c r="J61" t="s">
+        <v>361</v>
+      </c>
+      <c r="K61" t="s">
+        <v>362</v>
+      </c>
+      <c r="L61" t="s">
+        <v>363</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>364</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>366</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>367</v>
+      </c>
+      <c r="J62" t="s">
+        <v>368</v>
+      </c>
+      <c r="K62" t="s">
+        <v>369</v>
+      </c>
+      <c r="L62" t="s">
+        <v>370</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>364</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>372</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>373</v>
+      </c>
+      <c r="J63" t="s">
+        <v>374</v>
+      </c>
+      <c r="K63" t="s">
+        <v>375</v>
+      </c>
+      <c r="L63" t="s">
+        <v>376</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>377</v>
+      </c>
+      <c r="O63" t="s">
+        <v>107</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>379</v>
+      </c>
+      <c r="J64" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>377</v>
+      </c>
+      <c r="O64" t="s">
+        <v>65</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>382</v>
+      </c>
+      <c r="J65" t="s">
+        <v>383</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>384</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>385</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>386</v>
+      </c>
+      <c r="J66" t="s">
+        <v>387</v>
+      </c>
+      <c r="K66" t="s">
+        <v>388</v>
+      </c>
+      <c r="L66" t="s">
+        <v>389</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>384</v>
+      </c>
+      <c r="O66" t="s">
+        <v>390</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>391</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>392</v>
+      </c>
+      <c r="J67" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>384</v>
+      </c>
+      <c r="O67" t="s">
+        <v>390</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>394</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>395</v>
+      </c>
+      <c r="J68" t="s">
+        <v>396</v>
+      </c>
+      <c r="K68" t="s">
+        <v>397</v>
+      </c>
+      <c r="L68" t="s">
+        <v>398</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>384</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>399</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>400</v>
+      </c>
+      <c r="J69" t="s">
+        <v>401</v>
+      </c>
+      <c r="K69" t="s">
+        <v>402</v>
+      </c>
+      <c r="L69" t="s">
+        <v>403</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>404</v>
+      </c>
+      <c r="O69" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>405</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>406</v>
+      </c>
+      <c r="J70" t="s">
+        <v>407</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>408</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>409</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>410</v>
+      </c>
+      <c r="J71" t="s">
+        <v>411</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>412</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>413</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>414</v>
+      </c>
+      <c r="J72" t="s">
+        <v>415</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>416</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>418</v>
+      </c>
+      <c r="J73" t="s">
+        <v>419</v>
+      </c>
+      <c r="K73" t="s">
+        <v>420</v>
+      </c>
+      <c r="L73" t="s">
+        <v>421</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>422</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>424</v>
+      </c>
+      <c r="J74" t="s">
+        <v>425</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>426</v>
+      </c>
+      <c r="O74" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>427</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>428</v>
+      </c>
+      <c r="J75" t="s">
+        <v>429</v>
+      </c>
+      <c r="K75" t="s">
+        <v>430</v>
+      </c>
+      <c r="L75" t="s">
+        <v>431</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>426</v>
+      </c>
+      <c r="O75" t="s">
+        <v>390</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>432</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>433</v>
+      </c>
+      <c r="J76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>435</v>
+      </c>
+      <c r="O76" t="s">
+        <v>107</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>436</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>437</v>
+      </c>
+      <c r="J77" t="s">
+        <v>438</v>
+      </c>
+      <c r="K77" t="s">
+        <v>439</v>
+      </c>
+      <c r="L77" t="s">
+        <v>440</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>441</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>442</v>
+      </c>
+      <c r="J78" t="s">
+        <v>443</v>
+      </c>
+      <c r="K78" t="s">
+        <v>444</v>
+      </c>
+      <c r="L78" t="s">
+        <v>445</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>435</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>447</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>448</v>
+      </c>
+      <c r="J79" t="s">
+        <v>449</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>435</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>450</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>451</v>
+      </c>
+      <c r="J80" t="s">
+        <v>452</v>
+      </c>
+      <c r="K80" t="s">
+        <v>453</v>
+      </c>
+      <c r="L80" t="s">
+        <v>454</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>455</v>
+      </c>
+      <c r="O80" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>456</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>457</v>
+      </c>
+      <c r="J81" t="s">
+        <v>458</v>
+      </c>
+      <c r="K81" t="s">
+        <v>459</v>
+      </c>
+      <c r="L81" t="s">
+        <v>460</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>461</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>462</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>463</v>
+      </c>
+      <c r="J82" t="s">
+        <v>464</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>465</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>466</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>467</v>
+      </c>
+      <c r="J83" t="s">
+        <v>468</v>
+      </c>
+      <c r="K83" t="s">
+        <v>469</v>
+      </c>
+      <c r="L83" t="s">
+        <v>470</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>471</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>473</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>474</v>
+      </c>
+      <c r="J84" t="s">
+        <v>475</v>
+      </c>
+      <c r="K84" t="s">
+        <v>476</v>
+      </c>
+      <c r="L84" t="s">
+        <v>477</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>478</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>479</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>480</v>
+      </c>
+      <c r="J85" t="s">
+        <v>481</v>
+      </c>
+      <c r="K85" t="s">
+        <v>482</v>
+      </c>
+      <c r="L85" t="s">
+        <v>483</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>484</v>
+      </c>
+      <c r="O85" t="s">
+        <v>107</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>485</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>486</v>
+      </c>
+      <c r="J86" t="s">
+        <v>481</v>
+      </c>
+      <c r="K86" t="s">
+        <v>487</v>
+      </c>
+      <c r="L86" t="s">
+        <v>488</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>484</v>
+      </c>
+      <c r="O86" t="s">
+        <v>107</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>489</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>490</v>
+      </c>
+      <c r="J87" t="s">
+        <v>491</v>
+      </c>
+      <c r="K87" t="s">
+        <v>492</v>
+      </c>
+      <c r="L87" t="s">
+        <v>493</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>494</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>495</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>496</v>
+      </c>
+      <c r="J88" t="s">
+        <v>497</v>
+      </c>
+      <c r="K88" t="s">
+        <v>498</v>
+      </c>
+      <c r="L88" t="s">
+        <v>499</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>500</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>501</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>502</v>
+      </c>
+      <c r="J89" t="s">
+        <v>503</v>
+      </c>
+      <c r="K89" t="s">
+        <v>504</v>
+      </c>
+      <c r="L89" t="s">
+        <v>505</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>506</v>
+      </c>
+      <c r="O89" t="s">
+        <v>107</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>508</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>509</v>
+      </c>
+      <c r="J90" t="s">
+        <v>510</v>
+      </c>
+      <c r="K90" t="s">
+        <v>511</v>
+      </c>
+      <c r="L90" t="s">
+        <v>512</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>513</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>514</v>
+      </c>
+      <c r="J91" t="s">
+        <v>515</v>
+      </c>
+      <c r="K91" t="s">
+        <v>516</v>
+      </c>
+      <c r="L91" t="s">
+        <v>517</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>518</v>
+      </c>
+      <c r="O91" t="s">
+        <v>94</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>519</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>520</v>
+      </c>
+      <c r="J92" t="s">
+        <v>521</v>
+      </c>
+      <c r="K92" t="s">
+        <v>522</v>
+      </c>
+      <c r="L92" t="s">
+        <v>523</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>518</v>
+      </c>
+      <c r="O92" t="s">
+        <v>390</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>524</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>525</v>
+      </c>
+      <c r="J93" t="s">
+        <v>526</v>
+      </c>
+      <c r="K93" t="s">
+        <v>527</v>
+      </c>
+      <c r="L93" t="s">
+        <v>528</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>529</v>
+      </c>
+      <c r="O93" t="s">
+        <v>94</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>530</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>531</v>
+      </c>
+      <c r="J94" t="s">
+        <v>532</v>
+      </c>
+      <c r="K94" t="s">
+        <v>533</v>
+      </c>
+      <c r="L94" t="s">
+        <v>534</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>535</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>536</v>
+      </c>
+      <c r="J95" t="s">
+        <v>537</v>
+      </c>
+      <c r="K95" t="s">
+        <v>538</v>
+      </c>
+      <c r="L95" t="s">
+        <v>539</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
